--- a/bin/sheets/main_db/teams/SRL/PlayerPerformance_3749.xlsx
+++ b/bin/sheets/main_db/teams/SRL/PlayerPerformance_3749.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3749</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Hettige Don Rumesh Lahiru Thirimanne</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Left Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Medium Fast</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3068</t>
+          <t>3068</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -544,7 +609,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>08/01/2010</t>
@@ -552,7 +616,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3070</t>
+          <t>3070</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -604,7 +668,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3119</t>
+          <t>3119</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -656,7 +720,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3364</t>
+          <t>3364</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -708,7 +772,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3365</t>
+          <t>3365</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -760,7 +824,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3369</t>
+          <t>3369</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -812,7 +876,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3371</t>
+          <t>3371</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -852,7 +916,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>17/02/2012</t>
@@ -860,7 +923,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3377</t>
+          <t>3377</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -912,7 +975,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3382</t>
+          <t>3382</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -964,7 +1027,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3384</t>
+          <t>3384</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1004,7 +1067,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>28/02/2012</t>
@@ -1012,7 +1074,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3387</t>
+          <t>3387</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1064,7 +1126,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3389</t>
+          <t>3389</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1116,7 +1178,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3391</t>
+          <t>3391</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1156,7 +1218,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>06/03/2012</t>
@@ -1164,7 +1225,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3392</t>
+          <t>3392</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1216,7 +1277,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3393</t>
+          <t>3393</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1268,7 +1329,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3395</t>
+          <t>3395</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1320,7 +1381,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3396</t>
+          <t>3396</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1372,7 +1433,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3401</t>
+          <t>3401</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1424,7 +1485,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3408</t>
+          <t>3408</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1464,7 +1525,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>09/06/2012</t>
@@ -1472,7 +1532,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3409</t>
+          <t>3409</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1512,7 +1572,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>13/06/2012</t>
@@ -1520,7 +1579,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3410</t>
+          <t>3410</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1572,7 +1631,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3411</t>
+          <t>3411</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1624,7 +1683,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3413</t>
+          <t>3413</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1676,7 +1735,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3431</t>
+          <t>3431</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1716,7 +1775,6 @@
           <t>25</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>24/07/2012</t>
@@ -1724,7 +1782,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3432</t>
+          <t>3432</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1776,7 +1834,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3434</t>
+          <t>3434</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1828,7 +1886,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3435</t>
+          <t>3435</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1868,7 +1926,6 @@
           <t>28</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>04/11/2012</t>
@@ -1876,7 +1933,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3446</t>
+          <t>3446</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1916,7 +1973,6 @@
           <t>29</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>06/11/2012</t>
@@ -1924,7 +1980,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3447</t>
+          <t>3447</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1976,7 +2032,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3448</t>
+          <t>3448</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2028,7 +2084,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3449</t>
+          <t>3449</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2080,7 +2136,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3458</t>
+          <t>3458</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2132,7 +2188,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3460</t>
+          <t>3460</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2184,7 +2240,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3462</t>
+          <t>3462</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2224,7 +2280,6 @@
           <t>35</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>20/01/2013</t>
@@ -2232,7 +2287,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3465</t>
+          <t>3465</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2284,7 +2339,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3467</t>
+          <t>3467</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2324,7 +2379,6 @@
           <t>37</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t>23/03/2013</t>
@@ -2332,7 +2386,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3490</t>
+          <t>3490</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2372,7 +2426,6 @@
           <t>38</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>25/03/2013</t>
@@ -2380,7 +2433,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3492</t>
+          <t>3492</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2432,7 +2485,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3493</t>
+          <t>3493</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2484,7 +2537,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3508</t>
+          <t>3508</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2524,7 +2577,6 @@
           <t>41</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
           <t>13/06/2013</t>
@@ -2532,7 +2584,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3512</t>
+          <t>3512</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2584,7 +2636,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3516</t>
+          <t>3516</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2636,7 +2688,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3518</t>
+          <t>3518</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2688,7 +2740,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3520</t>
+          <t>3520</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2728,7 +2780,6 @@
           <t>45</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>02/07/2013</t>
@@ -2736,7 +2787,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3524</t>
+          <t>3524</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2788,7 +2839,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3527</t>
+          <t>3527</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2840,7 +2891,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3529</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2892,7 +2943,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3530</t>
+          <t>3530</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2944,7 +2995,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3534</t>
+          <t>3534</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2996,7 +3047,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3536</t>
+          <t>3536</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3048,7 +3099,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3542</t>
+          <t>3542</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3100,7 +3151,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3543</t>
+          <t>3543</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3152,7 +3203,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3576</t>
+          <t>3576</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3192,7 +3243,6 @@
           <t>54</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
           <t>12/11/2013</t>
@@ -3200,7 +3250,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3578</t>
+          <t>3578</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3252,7 +3302,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3579</t>
+          <t>3579</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3304,7 +3354,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3589</t>
+          <t>3589</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3356,7 +3406,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3616</t>
+          <t>3616</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3408,7 +3458,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3618</t>
+          <t>3618</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3460,7 +3510,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3621</t>
+          <t>3621</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3512,7 +3562,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3626</t>
+          <t>3626</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3564,7 +3614,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3630</t>
+          <t>3630</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3616,7 +3666,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3631</t>
+          <t>3631</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3668,7 +3718,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3635</t>
+          <t>3635</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3720,7 +3770,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3638</t>
+          <t>3638</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3772,7 +3822,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3639</t>
+          <t>3639</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3824,7 +3874,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3640</t>
+          <t>3640</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3876,7 +3926,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3641</t>
+          <t>3641</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3928,7 +3978,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3642</t>
+          <t>3642</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3980,7 +4030,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3646</t>
+          <t>3646</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4032,7 +4082,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3647</t>
+          <t>3647</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4084,7 +4134,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3648</t>
+          <t>3648</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4136,7 +4186,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3693</t>
+          <t>3693</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4188,7 +4238,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3696</t>
+          <t>3696</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4240,7 +4290,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3703</t>
+          <t>3703</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4280,7 +4330,6 @@
           <t>75</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
           <t>29/11/2014</t>
@@ -4288,7 +4337,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3706</t>
+          <t>3706</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4340,7 +4389,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3710</t>
+          <t>3710</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4392,7 +4441,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3712</t>
+          <t>3712</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4444,7 +4493,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3714</t>
+          <t>3714</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4484,7 +4533,6 @@
           <t>79</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr">
         <is>
           <t>13/12/2014</t>
@@ -4492,7 +4540,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3716</t>
+          <t>3716</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4532,7 +4580,6 @@
           <t>80</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
           <t>16/12/2014</t>
@@ -4540,7 +4587,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3718</t>
+          <t>3718</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4592,7 +4639,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3723</t>
+          <t>3723</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4644,7 +4691,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3726</t>
+          <t>3726</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4684,7 +4731,6 @@
           <t>83</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr">
         <is>
           <t>17/01/2015</t>
@@ -4692,7 +4738,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3729</t>
+          <t>3729</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4744,7 +4790,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3734</t>
+          <t>3734</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4796,7 +4842,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3737</t>
+          <t>3737</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4848,7 +4894,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3739</t>
+          <t>3739</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4900,7 +4946,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3743</t>
+          <t>3743</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4952,7 +4998,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3748</t>
+          <t>3748</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5004,7 +5050,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3759</t>
+          <t>3759</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5056,7 +5102,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3765</t>
+          <t>3765</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5108,7 +5154,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3769</t>
+          <t>3769</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5160,7 +5206,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3779</t>
+          <t>3779</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5212,7 +5258,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3782</t>
+          <t>3782</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5264,7 +5310,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3790</t>
+          <t>3790</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5316,7 +5362,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3814</t>
+          <t>3814</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5368,7 +5414,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3819</t>
+          <t>3819</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5420,7 +5466,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3820</t>
+          <t>3820</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5472,7 +5518,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3821</t>
+          <t>3821</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5524,7 +5570,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3822</t>
+          <t>3822</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5576,7 +5622,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3852</t>
+          <t>3852</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5628,7 +5674,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3853</t>
+          <t>3853</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5680,7 +5726,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3855</t>
+          <t>3855</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5732,7 +5778,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3865</t>
+          <t>3865</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5784,7 +5830,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3866</t>
+          <t>3866</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5836,7 +5882,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3868</t>
+          <t>3868</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5876,7 +5922,6 @@
           <t>106</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr">
         <is>
           <t>02/01/2016</t>
@@ -5884,7 +5929,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3870</t>
+          <t>3870</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5936,7 +5981,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3872</t>
+          <t>3872</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -5988,7 +6033,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4063</t>
+          <t>4063</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -6040,7 +6085,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4064</t>
+          <t>4064</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -6092,7 +6137,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4065</t>
+          <t>4065</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -6144,7 +6189,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4079</t>
+          <t>4079</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -6196,7 +6241,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4081</t>
+          <t>4081</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -6248,7 +6293,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4082</t>
+          <t>4082</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -6300,7 +6345,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4084</t>
+          <t>4084</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -6352,7 +6397,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4087</t>
+          <t>4087</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -6404,7 +6449,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4096</t>
+          <t>4096</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -6456,7 +6501,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4098</t>
+          <t>4098</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -6508,7 +6553,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4302</t>
+          <t>4302</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -6560,7 +6605,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4305</t>
+          <t>4305</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -6612,7 +6657,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4309</t>
+          <t>4309</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -6664,7 +6709,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4322</t>
+          <t>4322</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -6716,7 +6761,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4344</t>
+          <t>4344</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -6768,7 +6813,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4350</t>
+          <t>4350</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -6820,7 +6865,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4356</t>
+          <t>4356</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -6860,7 +6905,6 @@
           <t>125</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr"/>
       <c r="C126" t="inlineStr">
         <is>
           <t>28/07/2019</t>
@@ -6868,7 +6912,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4357</t>
+          <t>4357</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -6920,7 +6964,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4375</t>
+          <t>4375</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -6972,7 +7016,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4376</t>
+          <t>4376</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -7011,7 +7055,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7033,7 +7077,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -7070,7 +7114,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3389</t>
+          <t>3389</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -7107,7 +7151,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3527</t>
+          <t>3527</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -7144,7 +7188,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3737</t>
+          <t>3737</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -7181,7 +7225,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3739</t>
+          <t>3739</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -7207,6 +7251,551 @@
       <c r="G5" t="inlineStr">
         <is>
           <t>0/17</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4063</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4064</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>8.70%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4065</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4079</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4081</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>6.42%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4082</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>13.46%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4084</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>35.84%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4087</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>18.45%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4096</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4098</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4302</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4305</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2.94%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4309</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>12.44%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4322</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>6.48%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4344</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>13.31%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4350</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>6</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.08%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4356</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4357</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4375</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4376</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>12.12%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/SRL/PlayerPerformance_3749.xlsx
+++ b/bin/sheets/main_db/teams/SRL/PlayerPerformance_3749.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -609,6 +608,7 @@
           <t>2</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>08/01/2010</t>
@@ -916,6 +916,7 @@
           <t>8</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>17/02/2012</t>
@@ -1067,6 +1068,7 @@
           <t>11</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>28/02/2012</t>
@@ -1218,6 +1220,7 @@
           <t>14</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>06/03/2012</t>
@@ -1525,6 +1528,7 @@
           <t>20</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>09/06/2012</t>
@@ -1572,6 +1576,7 @@
           <t>21</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>13/06/2012</t>
@@ -1584,7 +1589,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1775,6 +1780,7 @@
           <t>25</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>24/07/2012</t>
@@ -1926,6 +1932,7 @@
           <t>28</t>
         </is>
       </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>04/11/2012</t>
@@ -1973,6 +1980,7 @@
           <t>29</t>
         </is>
       </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>06/11/2012</t>
@@ -2280,6 +2288,7 @@
           <t>35</t>
         </is>
       </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>20/01/2013</t>
@@ -2379,6 +2388,7 @@
           <t>37</t>
         </is>
       </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t>23/03/2013</t>
@@ -2426,6 +2436,7 @@
           <t>38</t>
         </is>
       </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>25/03/2013</t>
@@ -2577,6 +2588,7 @@
           <t>41</t>
         </is>
       </c>
+      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
           <t>13/06/2013</t>
@@ -2780,6 +2792,7 @@
           <t>45</t>
         </is>
       </c>
+      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>02/07/2013</t>
@@ -3243,6 +3256,7 @@
           <t>54</t>
         </is>
       </c>
+      <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
           <t>12/11/2013</t>
@@ -4330,6 +4344,7 @@
           <t>75</t>
         </is>
       </c>
+      <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
           <t>29/11/2014</t>
@@ -4533,6 +4548,7 @@
           <t>79</t>
         </is>
       </c>
+      <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr">
         <is>
           <t>13/12/2014</t>
@@ -4580,6 +4596,7 @@
           <t>80</t>
         </is>
       </c>
+      <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
           <t>16/12/2014</t>
@@ -4731,6 +4748,7 @@
           <t>83</t>
         </is>
       </c>
+      <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr">
         <is>
           <t>17/01/2015</t>
@@ -4743,7 +4761,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -5922,6 +5940,7 @@
           <t>106</t>
         </is>
       </c>
+      <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr">
         <is>
           <t>02/01/2016</t>
@@ -5934,7 +5953,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -6905,6 +6924,7 @@
           <t>125</t>
         </is>
       </c>
+      <c r="B126" t="inlineStr"/>
       <c r="C126" t="inlineStr">
         <is>
           <t>28/07/2019</t>
@@ -7257,549 +7277,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4063</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4064</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>8.70%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4065</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4079</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4081</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>6.42%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4082</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>13.46%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4084</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>35.84%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4087</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>18.45%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4096</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>3</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4098</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4302</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4305</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2.94%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4309</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>12.44%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4322</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>3</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>6.48%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4344</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>6</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>13.31%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4350</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>6</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>20.08%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4356</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4357</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4375</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>5</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4376</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>3</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>12.12%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>